--- a/Sampler/data/OrderData.xlsx
+++ b/Sampler/data/OrderData.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snm/Desktop/ML Sampler/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byc\Downloads\Qlik-Multilingual-Sampler-master\Qlik-Multilingual-Sampler-master\Sampler\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="4820" windowWidth="19040" windowHeight="12600" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11655" windowHeight="8295" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sector" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Language" sheetId="6" r:id="rId6"/>
     <sheet name="UI_Strings" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="193">
   <si>
     <t>Sector_EN</t>
   </si>
@@ -531,12 +531,93 @@
   </si>
   <si>
     <t>RGB(180,118,166)</t>
+  </si>
+  <si>
+    <t>RGB(48,125,48)</t>
+  </si>
+  <si>
+    <t>pt</t>
+  </si>
+  <si>
+    <t>Nº</t>
+  </si>
+  <si>
+    <t>Empresa</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Preço Estendido</t>
+  </si>
+  <si>
+    <t>Nº Pedido</t>
+  </si>
+  <si>
+    <t>Produto</t>
+  </si>
+  <si>
+    <t>Quantidade</t>
+  </si>
+  <si>
+    <t>Setor</t>
+  </si>
+  <si>
+    <t>Preço Unitário</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selecione seu idioma de preferência…</t>
+  </si>
+  <si>
+    <t>Português</t>
+  </si>
+  <si>
+    <t>Empresa ABC</t>
+  </si>
+  <si>
+    <t>Empresa ACME</t>
+  </si>
+  <si>
+    <t>Empresa XYZ</t>
+  </si>
+  <si>
+    <t>Produto A</t>
+  </si>
+  <si>
+    <t>Produto B</t>
+  </si>
+  <si>
+    <t>Produto C</t>
+  </si>
+  <si>
+    <t>Industry_PT</t>
+  </si>
+  <si>
+    <t>Cuidados da Saúde</t>
+  </si>
+  <si>
+    <t>Produtos Farmacêuticos</t>
+  </si>
+  <si>
+    <t>Sector_PT</t>
+  </si>
+  <si>
+    <t>Ciências Biológicas</t>
+  </si>
+  <si>
+    <t>Detalhe do Pedido</t>
+  </si>
+  <si>
+    <t>Idioma</t>
+  </si>
+  <si>
+    <t>Total de Pedidos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m\/d\/yyyy"/>
     <numFmt numFmtId="165" formatCode="##############"/>
@@ -1114,6 +1195,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1405,19 +1489,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="15" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -1436,8 +1522,11 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1456,8 +1545,11 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1475,6 +1567,9 @@
       </c>
       <c r="F3" t="s">
         <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -1484,18 +1579,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -1514,8 +1613,11 @@
       <c r="F1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1534,8 +1636,11 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1554,8 +1659,11 @@
       <c r="F3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1573,6 +1681,9 @@
       </c>
       <c r="F4" t="s">
         <v>45</v>
+      </c>
+      <c r="G4" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -1582,20 +1693,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>76</v>
       </c>
@@ -1607,7 +1718,7 @@
       </c>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1619,7 +1730,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1630,7 +1741,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1641,7 +1752,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1652,7 +1763,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1663,7 +1774,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1674,7 +1785,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -1685,7 +1796,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1696,7 +1807,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -1707,7 +1818,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -1718,7 +1829,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1729,7 +1840,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1740,7 +1851,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -1751,7 +1862,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1762,7 +1873,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1771,6 +1882,39 @@
       </c>
       <c r="C16" s="3" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -1780,20 +1924,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>78</v>
       </c>
@@ -1804,7 +1948,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1815,7 +1959,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1826,7 +1970,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1837,7 +1981,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1848,7 +1992,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1859,7 +2003,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1870,7 +2014,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -1881,7 +2025,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -1892,7 +2036,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -1903,7 +2047,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -1914,7 +2058,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -1925,7 +2069,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>3</v>
       </c>
@@ -1936,7 +2080,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -1947,7 +2091,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2</v>
       </c>
@@ -1958,7 +2102,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>3</v>
       </c>
@@ -1967,6 +2111,39 @@
       </c>
       <c r="C16" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -1982,19 +2159,19 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -2020,7 +2197,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -2046,7 +2223,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2072,7 +2249,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2098,7 +2275,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2124,7 +2301,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2150,7 +2327,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2176,7 +2353,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2202,7 +2379,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -2228,7 +2405,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2254,7 +2431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2280,7 +2457,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2306,7 +2483,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2332,7 +2509,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2358,7 +2535,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2384,7 +2561,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2410,7 +2587,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2436,7 +2613,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2462,7 +2639,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2495,15 +2672,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -2511,7 +2691,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -2519,7 +2699,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -2527,7 +2707,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -2535,7 +2715,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -2543,12 +2723,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>75</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2558,19 +2746,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -2581,7 +2769,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -2592,7 +2780,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -2603,7 +2791,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>100</v>
       </c>
@@ -2614,7 +2802,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -2625,7 +2813,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -2636,7 +2824,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -2647,7 +2835,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -2658,7 +2846,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -2669,7 +2857,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -2680,7 +2868,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -2691,7 +2879,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>105</v>
       </c>
@@ -2702,7 +2890,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -2713,7 +2901,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>107</v>
       </c>
@@ -2724,7 +2912,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -2735,7 +2923,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>99</v>
       </c>
@@ -2746,7 +2934,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>100</v>
       </c>
@@ -2757,7 +2945,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -2768,7 +2956,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -2779,7 +2967,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -2790,7 +2978,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>103</v>
       </c>
@@ -2801,7 +2989,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -2812,7 +3000,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -2823,7 +3011,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>104</v>
       </c>
@@ -2834,7 +3022,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>105</v>
       </c>
@@ -2845,7 +3033,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>106</v>
       </c>
@@ -2856,7 +3044,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -2867,7 +3055,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>100</v>
       </c>
@@ -2878,7 +3066,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>79</v>
       </c>
@@ -2889,7 +3077,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>100</v>
       </c>
@@ -2900,7 +3088,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -2911,7 +3099,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>106</v>
       </c>
@@ -2922,7 +3110,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -2933,7 +3121,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -2944,7 +3132,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>79</v>
       </c>
@@ -2955,7 +3143,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>99</v>
       </c>
@@ -2966,7 +3154,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>100</v>
       </c>
@@ -2977,7 +3165,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>101</v>
       </c>
@@ -2988,7 +3176,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>102</v>
       </c>
@@ -2998,8 +3186,11 @@
       <c r="C39" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -3010,7 +3201,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>103</v>
       </c>
@@ -3021,7 +3212,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -3032,7 +3223,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -3043,7 +3234,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -3054,7 +3245,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>105</v>
       </c>
@@ -3065,7 +3256,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>106</v>
       </c>
@@ -3076,7 +3267,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>109</v>
       </c>
@@ -3087,7 +3278,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>79</v>
       </c>
@@ -3098,7 +3289,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>99</v>
       </c>
@@ -3109,7 +3300,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>100</v>
       </c>
@@ -3120,7 +3311,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -3131,7 +3322,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>102</v>
       </c>
@@ -3142,7 +3333,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -3153,7 +3344,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>103</v>
       </c>
@@ -3164,7 +3355,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -3175,7 +3366,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -3186,7 +3377,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>104</v>
       </c>
@@ -3197,7 +3388,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>105</v>
       </c>
@@ -3208,7 +3399,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>106</v>
       </c>
@@ -3219,7 +3410,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>109</v>
       </c>
@@ -3230,7 +3421,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -3241,7 +3432,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>99</v>
       </c>
@@ -3252,7 +3443,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>100</v>
       </c>
@@ -3263,7 +3454,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>101</v>
       </c>
@@ -3274,7 +3465,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>102</v>
       </c>
@@ -3285,7 +3476,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -3296,7 +3487,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>103</v>
       </c>
@@ -3307,7 +3498,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -3318,7 +3509,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>63</v>
       </c>
@@ -3329,7 +3520,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>104</v>
       </c>
@@ -3340,7 +3531,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>105</v>
       </c>
@@ -3351,7 +3542,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>106</v>
       </c>
@@ -3362,7 +3553,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>109</v>
       </c>
@@ -3373,71 +3564,225 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" t="s">
+        <v>169</v>
+      </c>
+      <c r="C74" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>99</v>
+      </c>
+      <c r="B75" t="s">
+        <v>170</v>
+      </c>
+      <c r="C75" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>100</v>
+      </c>
+      <c r="B76" t="s">
+        <v>171</v>
+      </c>
+      <c r="C76" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>101</v>
+      </c>
+      <c r="B77" t="s">
+        <v>129</v>
+      </c>
+      <c r="C77" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>102</v>
+      </c>
+      <c r="B78" t="s">
+        <v>191</v>
+      </c>
+      <c r="C78" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>61</v>
+      </c>
+      <c r="B79" t="s">
+        <v>172</v>
+      </c>
+      <c r="C79" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>103</v>
+      </c>
+      <c r="B80" t="s">
+        <v>190</v>
+      </c>
+      <c r="C80" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>77</v>
+      </c>
+      <c r="B81" t="s">
+        <v>173</v>
+      </c>
+      <c r="C81" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>63</v>
+      </c>
+      <c r="B82" t="s">
+        <v>174</v>
+      </c>
+      <c r="C82" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>104</v>
+      </c>
+      <c r="B83" t="s">
+        <v>175</v>
+      </c>
+      <c r="C83" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>105</v>
+      </c>
+      <c r="B84" t="s">
+        <v>192</v>
+      </c>
+      <c r="C84" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>106</v>
+      </c>
+      <c r="B85" t="s">
+        <v>176</v>
+      </c>
+      <c r="C85" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>107</v>
+      </c>
+      <c r="B86" t="s">
+        <v>177</v>
+      </c>
+      <c r="C86" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>159</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B87" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C87" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>159</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B88" t="s">
         <v>160</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C88" t="s">
         <v>73</v>
       </c>
-      <c r="D75" s="5"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="D88" s="5"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>159</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B89" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C89" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>159</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B90" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C90" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>159</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B91" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C91" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>159</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B92" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C92" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>159</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C93" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/Sampler/data/OrderData.xlsx
+++ b/Sampler/data/OrderData.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28622"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byc\Downloads\Qlik-Multilingual-Sampler-master\Qlik-Multilingual-Sampler-master\Sampler\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snm/github/Qlik-Multilingual-Sampler/Sampler/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11655" windowHeight="8295" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22420" windowHeight="14000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sector" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Language" sheetId="6" r:id="rId6"/>
     <sheet name="UI_Strings" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -617,7 +617,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m\/d\/yyyy"/>
     <numFmt numFmtId="165" formatCode="##############"/>
@@ -1491,19 +1491,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -1526,7 +1524,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1549,7 +1547,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1581,20 +1579,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" customWidth="1"/>
+    <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -1617,7 +1613,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1640,7 +1636,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1663,7 +1659,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1695,18 +1691,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>76</v>
       </c>
@@ -1718,7 +1714,7 @@
       </c>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1730,7 +1726,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1741,7 +1737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1752,7 +1748,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1763,7 +1759,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1774,7 +1770,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1785,7 +1781,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -1796,7 +1792,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1807,7 +1803,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -1818,7 +1814,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -1829,7 +1825,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1840,7 +1836,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1851,7 +1847,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -1862,7 +1858,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1873,7 +1869,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1884,7 +1880,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -1895,7 +1891,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1906,7 +1902,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1926,18 +1922,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>78</v>
       </c>
@@ -1948,7 +1942,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1959,7 +1953,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1970,7 +1964,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1981,7 +1975,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1992,7 +1986,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -2003,7 +1997,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -2014,7 +2008,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -2025,7 +2019,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -2036,7 +2030,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -2047,7 +2041,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -2058,7 +2052,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -2069,7 +2063,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>3</v>
       </c>
@@ -2080,7 +2074,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -2091,7 +2085,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>2</v>
       </c>
@@ -2102,7 +2096,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>3</v>
       </c>
@@ -2113,7 +2107,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -2124,7 +2118,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>2</v>
       </c>
@@ -2135,7 +2129,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>3</v>
       </c>
@@ -2155,23 +2149,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -2197,7 +2189,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -2223,7 +2215,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2249,7 +2241,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2275,7 +2267,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2301,7 +2293,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2327,7 +2319,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2353,7 +2345,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2379,7 +2371,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -2405,7 +2397,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2431,7 +2423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2457,7 +2449,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2483,7 +2475,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2509,7 +2501,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2535,7 +2527,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2561,7 +2553,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2587,7 +2579,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2613,7 +2605,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2639,7 +2631,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2674,16 +2666,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -2691,7 +2681,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -2699,7 +2689,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -2707,7 +2697,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -2715,7 +2705,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -2723,7 +2713,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -2731,7 +2721,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>167</v>
       </c>
@@ -2748,17 +2738,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -2769,7 +2762,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -2780,7 +2773,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -2791,7 +2784,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>100</v>
       </c>
@@ -2802,7 +2795,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -2813,7 +2806,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -2824,7 +2817,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -2835,7 +2828,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -2846,7 +2839,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -2857,7 +2850,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -2868,7 +2861,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -2879,7 +2872,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>105</v>
       </c>
@@ -2890,7 +2883,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -2901,7 +2894,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>107</v>
       </c>
@@ -2912,7 +2905,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -2923,7 +2916,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>99</v>
       </c>
@@ -2934,7 +2927,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>100</v>
       </c>
@@ -2945,7 +2938,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -2956,7 +2949,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -2967,7 +2960,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -2978,7 +2971,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>103</v>
       </c>
@@ -2989,7 +2982,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -3000,7 +2993,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -3011,7 +3004,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>104</v>
       </c>
@@ -3022,7 +3015,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>105</v>
       </c>
@@ -3033,7 +3026,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>106</v>
       </c>
@@ -3044,7 +3037,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -3055,7 +3048,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>100</v>
       </c>
@@ -3066,7 +3059,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>79</v>
       </c>
@@ -3077,7 +3070,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>100</v>
       </c>
@@ -3088,7 +3081,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -3099,7 +3092,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>106</v>
       </c>
@@ -3110,7 +3103,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -3121,7 +3114,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -3132,7 +3125,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>79</v>
       </c>
@@ -3143,7 +3136,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>99</v>
       </c>
@@ -3154,7 +3147,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>100</v>
       </c>
@@ -3165,7 +3158,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>101</v>
       </c>
@@ -3176,7 +3169,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>102</v>
       </c>
@@ -3190,7 +3183,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -3201,7 +3194,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>103</v>
       </c>
@@ -3212,7 +3205,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -3223,7 +3216,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -3234,7 +3227,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -3245,7 +3238,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>105</v>
       </c>
@@ -3256,7 +3249,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>106</v>
       </c>
@@ -3267,7 +3260,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>109</v>
       </c>
@@ -3278,7 +3271,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>79</v>
       </c>
@@ -3289,7 +3282,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>99</v>
       </c>
@@ -3300,7 +3293,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>100</v>
       </c>
@@ -3311,7 +3304,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -3322,7 +3315,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>102</v>
       </c>
@@ -3333,7 +3326,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -3344,7 +3337,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>103</v>
       </c>
@@ -3355,7 +3348,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -3366,7 +3359,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -3377,7 +3370,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>104</v>
       </c>
@@ -3388,7 +3381,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>105</v>
       </c>
@@ -3399,7 +3392,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>106</v>
       </c>
@@ -3410,7 +3403,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>109</v>
       </c>
@@ -3421,7 +3414,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -3432,7 +3425,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>99</v>
       </c>
@@ -3443,7 +3436,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>100</v>
       </c>
@@ -3454,7 +3447,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>101</v>
       </c>
@@ -3465,7 +3458,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>102</v>
       </c>
@@ -3476,7 +3469,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -3487,7 +3480,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>103</v>
       </c>
@@ -3498,7 +3491,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -3509,7 +3502,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>63</v>
       </c>
@@ -3520,7 +3513,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>104</v>
       </c>
@@ -3531,7 +3524,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>105</v>
       </c>
@@ -3542,7 +3535,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>106</v>
       </c>
@@ -3553,7 +3546,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>109</v>
       </c>
@@ -3564,7 +3557,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -3575,7 +3568,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>99</v>
       </c>
@@ -3586,7 +3579,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>100</v>
       </c>
@@ -3597,7 +3590,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>101</v>
       </c>
@@ -3608,7 +3601,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>102</v>
       </c>
@@ -3619,7 +3612,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>61</v>
       </c>
@@ -3630,7 +3623,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>103</v>
       </c>
@@ -3641,7 +3634,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>77</v>
       </c>
@@ -3652,7 +3645,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>63</v>
       </c>
@@ -3663,7 +3656,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>104</v>
       </c>
@@ -3674,7 +3667,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>105</v>
       </c>
@@ -3685,7 +3678,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>106</v>
       </c>
@@ -3696,7 +3689,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>107</v>
       </c>
@@ -3707,7 +3700,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>159</v>
       </c>
@@ -3718,7 +3711,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>159</v>
       </c>
@@ -3730,7 +3723,7 @@
       </c>
       <c r="D88" s="5"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>159</v>
       </c>
@@ -3741,7 +3734,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>159</v>
       </c>
@@ -3752,7 +3745,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>159</v>
       </c>
@@ -3763,7 +3756,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>159</v>
       </c>
@@ -3774,7 +3767,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>159</v>
       </c>

--- a/Sampler/data/OrderData.xlsx
+++ b/Sampler/data/OrderData.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28622"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11020"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snm/github/Qlik-Multilingual-Sampler/Sampler/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snm/QlikMachineImages/shared-content/files/data/Qlik-Multilingual-Sampler-master/Sampler/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22420" windowHeight="14000" activeTab="3"/>
+    <workbookView xWindow="11180" yWindow="2440" windowWidth="22420" windowHeight="18520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sector" sheetId="1" r:id="rId1"/>
@@ -19,21 +19,20 @@
     <sheet name="Orders" sheetId="5" r:id="rId5"/>
     <sheet name="Language" sheetId="6" r:id="rId6"/>
     <sheet name="UI_Strings" sheetId="9" r:id="rId7"/>
+    <sheet name="JSON to Excel" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="380">
   <si>
     <t>Sector_EN</t>
   </si>
@@ -302,9 +301,6 @@
     <t>Wählen Sie Ihre bevorzugte Sprache ...</t>
   </si>
   <si>
-    <t xml:space="preserve"> Select your preferred language…</t>
-  </si>
-  <si>
     <t>Booked Amount</t>
   </si>
   <si>
@@ -323,9 +319,6 @@
     <t>en-US</t>
   </si>
   <si>
-    <t xml:space="preserve"> Seleccione su idioma preferido...</t>
-  </si>
-  <si>
     <t>Sélectionnez votre langue préférée</t>
   </si>
   <si>
@@ -356,12 +349,6 @@
     <t>Unit Price</t>
   </si>
   <si>
-    <t>Select your preferred language…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select your preferred language... </t>
-  </si>
-  <si>
     <t>Select your preferred language...</t>
   </si>
   <si>
@@ -539,9 +526,6 @@
     <t>pt</t>
   </si>
   <si>
-    <t>Nº</t>
-  </si>
-  <si>
     <t>Empresa</t>
   </si>
   <si>
@@ -566,9 +550,6 @@
     <t>Preço Unitário</t>
   </si>
   <si>
-    <t xml:space="preserve"> Selecione seu idioma de preferência…</t>
-  </si>
-  <si>
     <t>Português</t>
   </si>
   <si>
@@ -612,17 +593,595 @@
   </si>
   <si>
     <t>Total de Pedidos</t>
+  </si>
+  <si>
+    <t>Order Analysis</t>
+  </si>
+  <si>
+    <t>Application Info</t>
+  </si>
+  <si>
+    <t>DEVELOPER</t>
+  </si>
+  <si>
+    <t>Data Explorer</t>
+  </si>
+  <si>
+    <t>Language String Explorer</t>
+  </si>
+  <si>
+    <t>Language Section Access</t>
+  </si>
+  <si>
+    <t>Bestellanalyse</t>
+  </si>
+  <si>
+    <t>Applikations-Info</t>
+  </si>
+  <si>
+    <t>ENTWICKLER</t>
+  </si>
+  <si>
+    <t>Daten-Explorer</t>
+  </si>
+  <si>
+    <t>Sprachtexte Übersicht</t>
+  </si>
+  <si>
+    <t>Sprache Section Access</t>
+  </si>
+  <si>
+    <t>Análisis de Pedidos</t>
+  </si>
+  <si>
+    <t>Información de la Aplicación</t>
+  </si>
+  <si>
+    <t>DESARROLLADOR</t>
+  </si>
+  <si>
+    <t>Explorador de Datos</t>
+  </si>
+  <si>
+    <t>Explorador de Cadenas de Idiomas</t>
+  </si>
+  <si>
+    <t>Acceso a la Sección de Idiomas</t>
+  </si>
+  <si>
+    <t>Analyse des ventes</t>
+  </si>
+  <si>
+    <t>Info Application</t>
+  </si>
+  <si>
+    <t>DEVELOPPEUR</t>
+  </si>
+  <si>
+    <t>Exploration de Données</t>
+  </si>
+  <si>
+    <t>Langue du String Explorer</t>
+  </si>
+  <si>
+    <t>Langue du Section Access</t>
+  </si>
+  <si>
+    <t>受注分析</t>
+  </si>
+  <si>
+    <t>アプリケーション情報</t>
+  </si>
+  <si>
+    <t>デベロッパー</t>
+  </si>
+  <si>
+    <t>データエクスプローラー</t>
+  </si>
+  <si>
+    <t>言語 文字列エクスプローラー</t>
+  </si>
+  <si>
+    <t>言語 セクションアクセス</t>
+  </si>
+  <si>
+    <t>Análise de Pedidos</t>
+  </si>
+  <si>
+    <t>Informações da Aplicação</t>
+  </si>
+  <si>
+    <t>DESENVOLVEDOR</t>
+  </si>
+  <si>
+    <t>Explorador de Dados</t>
+  </si>
+  <si>
+    <t>Explorador de Dados String</t>
+  </si>
+  <si>
+    <t>Acesso à Seção de Idiomas</t>
+  </si>
+  <si>
+    <t>mlFormatTime:"hh:mm:ss",</t>
+  </si>
+  <si>
+    <t>mlFormatInterval:"D hh:mm",</t>
+  </si>
+  <si>
+    <t>mlFormatNum:"#_COMMA_##0.dec",</t>
+  </si>
+  <si>
+    <t>mlFormatNumDefaultDecimals:"2",</t>
+  </si>
+  <si>
+    <t>mlFormatNumDecimal:".",</t>
+  </si>
+  <si>
+    <t>mlFormatNumThousand:"_COMMA_",</t>
+  </si>
+  <si>
+    <t>mlFormatMoney:"#_COMMA_##0.dec",</t>
+  </si>
+  <si>
+    <t>mlFormatMoneyCurrency:"cur#_COMMA_##0.dec",</t>
+  </si>
+  <si>
+    <t>mlFormatMoneyDefaultDecimals:"2",</t>
+  </si>
+  <si>
+    <t>mlFormatMoneyDecimal:".",</t>
+  </si>
+  <si>
+    <t>mlFormatMoneyThousand:"_COMMA_",</t>
+  </si>
+  <si>
+    <t>mlFormatDate</t>
+  </si>
+  <si>
+    <t>MM/DD/YYYY</t>
+  </si>
+  <si>
+    <t>mlFormatTime</t>
+  </si>
+  <si>
+    <t>hh:mm:ss</t>
+  </si>
+  <si>
+    <t>mlFormatTimestamp</t>
+  </si>
+  <si>
+    <t>MM/DD/YYYY hh:mm:ss</t>
+  </si>
+  <si>
+    <t>mlFormatInterval</t>
+  </si>
+  <si>
+    <t>D hh:mm</t>
+  </si>
+  <si>
+    <t>mlFormatNum</t>
+  </si>
+  <si>
+    <t>#,##0.dec</t>
+  </si>
+  <si>
+    <t>mlFormatNumDefaultDecimals</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>mlFormatNumDecimal</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>mlFormatNumThousand</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>mlFormatMoney</t>
+  </si>
+  <si>
+    <t>mlFormatMoneyCurrency</t>
+  </si>
+  <si>
+    <t>cur#,##0.dec</t>
+  </si>
+  <si>
+    <t>mlFormatMoneyDefaultCurrency</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>mlFormatMoneyDefaultDecimals</t>
+  </si>
+  <si>
+    <t>mlFormatMoneyDecimal</t>
+  </si>
+  <si>
+    <t>mlFormatMoneyThousand</t>
+  </si>
+  <si>
+    <t>Order Number</t>
+  </si>
+  <si>
+    <t>Language Format Explorer</t>
+  </si>
+  <si>
+    <t>Formatted Data</t>
+  </si>
+  <si>
+    <t>Raw Data</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Local Currency Format</t>
+  </si>
+  <si>
+    <t>Language Order</t>
+  </si>
+  <si>
+    <t>Section Access Table</t>
+  </si>
+  <si>
+    <t>LanguageFooter</t>
+  </si>
+  <si>
+    <t>This box can be removed for more analytic content. User preferences can be specified using security groups.</t>
+  </si>
+  <si>
+    <t>ReloadSubtitle</t>
+  </si>
+  <si>
+    <t>After updating resource files/db with new string values, reload the app to update them.</t>
+  </si>
+  <si>
+    <t>TableColTitle</t>
+  </si>
+  <si>
+    <t>Column Based Approach: Columns are 'Switched' based on language preference.</t>
+  </si>
+  <si>
+    <t>TableRowTitle</t>
+  </si>
+  <si>
+    <t>Row Based Approach: Rows are 'filtered/reduced' based on language preference.</t>
+  </si>
+  <si>
+    <t>TableCRFooter</t>
+  </si>
+  <si>
+    <t>NOTE: This table will not change based on selections above. It is for demonstration purposes only</t>
+  </si>
+  <si>
+    <t>mlFormatDate:"DD/MM/YYYY",</t>
+  </si>
+  <si>
+    <t>mlFormatTimestamp:"DD/MM/YYYY hh:mm:ss",</t>
+  </si>
+  <si>
+    <t>DD/MM/YYYY</t>
+  </si>
+  <si>
+    <t>DD/MM/YYYY hh:mm:ss</t>
+  </si>
+  <si>
+    <t>#.##0,dec</t>
+  </si>
+  <si>
+    <t>cur#.##0,dec</t>
+  </si>
+  <si>
+    <t>€</t>
+  </si>
+  <si>
+    <t>Sprachformat Übersicht</t>
+  </si>
+  <si>
+    <t>Formatierte Daten-Explorer</t>
+  </si>
+  <si>
+    <t>Rohdaten</t>
+  </si>
+  <si>
+    <t>Alter</t>
+  </si>
+  <si>
+    <t>Lokales Währungsformat</t>
+  </si>
+  <si>
+    <t>Sprachreihenfolge</t>
+  </si>
+  <si>
+    <t>Section Access – Berechtigungstabelle</t>
+  </si>
+  <si>
+    <t>Dieses Feld kann ausgeblendet warden, um mehr Platz für analytische Inhalte zu schaffen. Benutzereinstellungen können in den Sicherheitsgruppen spezifiziert werden</t>
+  </si>
+  <si>
+    <t>Nach Update der Resource-Dateien/DB mit neuen Strings, laden Sie die App neu, um sie zu aktualisieren</t>
+  </si>
+  <si>
+    <t>Spaltenbasierter Ansatz: Spaltenüberschriften werden 'umgeschaltet' abhängig von Spracheinstellung</t>
+  </si>
+  <si>
+    <t>Zeilenbasierter Ansatz: Zeilen werden 'gefiltert/reduziert' abhängig von Spracheinstellung</t>
+  </si>
+  <si>
+    <t>Hinweis: Diese Tabelle ist unabhängig von Selektionen weiter oben und ändert sich daher nicht. Diese ist nur für Demonstrationszwecke gedacht</t>
+  </si>
+  <si>
+    <t>Industry:"Industria",</t>
+  </si>
+  <si>
+    <t>Language Format Explorer:"Explorador de Formato de Idioma",</t>
+  </si>
+  <si>
+    <t>Raw Data:"Datos Brutos",</t>
+  </si>
+  <si>
+    <t>Age:"Era",</t>
+  </si>
+  <si>
+    <t>Seleccione su idioma preferido...</t>
+  </si>
+  <si>
+    <t>Explorador de Formato de Idioma</t>
+  </si>
+  <si>
+    <t>Datos Formateados</t>
+  </si>
+  <si>
+    <t>Datos Brutos</t>
+  </si>
+  <si>
+    <t>Era</t>
+  </si>
+  <si>
+    <t>Formato de Moneda Local</t>
+  </si>
+  <si>
+    <t>Orden de Idioma</t>
+  </si>
+  <si>
+    <t>Sección Tabla de Acceso</t>
+  </si>
+  <si>
+    <t>Esta caja se puede quitar para un contenido más analítico. Las preferencias del usuario se pueden especificar utilizando grupos de seguridad.</t>
+  </si>
+  <si>
+    <t>Después de actualizar los archivos de recursos/db con nuevos valores de cadena, vuelva a cargar la aplicación para actualizarlos.</t>
+  </si>
+  <si>
+    <t>Enfoque basado en columna: las columnas se 'Cambian' según la preferencia de idioma.</t>
+  </si>
+  <si>
+    <t>Enfoque basado en líneas: las líneas se 'filtran/reducen' en función de las preferencias de idioma.</t>
+  </si>
+  <si>
+    <t>NOTA: Esta tabla no cambiará en función de las selecciones anteriores. Es solo para fines de demostración</t>
+  </si>
+  <si>
+    <t>Format de la langue</t>
+  </si>
+  <si>
+    <t>Donnée au format</t>
+  </si>
+  <si>
+    <t>Donnée brute</t>
+  </si>
+  <si>
+    <t>Format de la monnaie locale</t>
+  </si>
+  <si>
+    <t>Ordre des langues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table du Section Access </t>
+  </si>
+  <si>
+    <t>Cette case peut être retiree pour un contenu plus analytique. Les préférences utilisateurs peuvent être spécifiées en utilisant les groupes de sécurité</t>
+  </si>
+  <si>
+    <t>Après avoir rafraîchi les données sources avec les nouvelles chaînes de caractères, recharger l’application pour les rafraîchir</t>
+  </si>
+  <si>
+    <t>Méthode Colonne: les colonnes sont modifiées en fonction des préférences de langue</t>
+  </si>
+  <si>
+    <t>Méthode à la Ligne: les lignes sont filtrées/diminuées en fonction des préférences de langue</t>
+  </si>
+  <si>
+    <t>INFO: Cette table ne sera pas modifiée par les sélections ci-dessus. A but de démonstration uniquemen</t>
+  </si>
+  <si>
+    <t>YYYY/MM/DD</t>
+  </si>
+  <si>
+    <t>YYYY/MM/DD hh:mm:ss</t>
+  </si>
+  <si>
+    <t>¥</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>言語フォーマットエクスプローラー</t>
+  </si>
+  <si>
+    <t>フォーマットされたデータ</t>
+  </si>
+  <si>
+    <t>RAWデータ</t>
+  </si>
+  <si>
+    <t>年齢</t>
+  </si>
+  <si>
+    <t>現地通貨フォーマット</t>
+  </si>
+  <si>
+    <t>言語順</t>
+  </si>
+  <si>
+    <t>セクションアクセステーブル</t>
+  </si>
+  <si>
+    <t>このボックスは、より多くの分析コンテンツのために削除することができます。 ユーザーの設定は、セキュリティグループを使用して指定できます。</t>
+  </si>
+  <si>
+    <t>リソースファイル/データベースを新しい文字列値で更新した後、アプリをリロードして反映させます。</t>
+  </si>
+  <si>
+    <t>列に基づいたアプローチ: 言語設定に基づいて列が「切り替わり」ます。</t>
+  </si>
+  <si>
+    <t>行に基づいたアプローチ: 言語設定に基づいて行が「フィルタリング/削除」されます。</t>
+  </si>
+  <si>
+    <t>注: このテーブルは上記の選択に基づいて変更されません。デモンストレーションの目的のみです</t>
+  </si>
+  <si>
+    <t>mlFormatMoneyDefaultCurrency:"R$",</t>
+  </si>
+  <si>
+    <t>Company:"Empresa",</t>
+  </si>
+  <si>
+    <t>Date:"Data",</t>
+  </si>
+  <si>
+    <t>Extended Price:"Preço Estendido",</t>
+  </si>
+  <si>
+    <t>Language:"Idioma",</t>
+  </si>
+  <si>
+    <t>Order Number:"Nº Pedido",</t>
+  </si>
+  <si>
+    <t>Order Details:"Detalhe do Pedido",</t>
+  </si>
+  <si>
+    <t>Product:"Produto",</t>
+  </si>
+  <si>
+    <t>Quantity:"Quantidade",</t>
+  </si>
+  <si>
+    <t>Sector:"Setor",</t>
+  </si>
+  <si>
+    <t>Total Orders:"Total de Pedidos",</t>
+  </si>
+  <si>
+    <t>Unit Price:"Preço Unitário",</t>
+  </si>
+  <si>
+    <t>Select your preferred language...:"Selecione seu idioma de preferência...",</t>
+  </si>
+  <si>
+    <t>themeRGB:"RGB(48,125,48)",</t>
+  </si>
+  <si>
+    <t>Order Analysis:"Análise de Pedidos",</t>
+  </si>
+  <si>
+    <t>Formatted Data:"Dados Formatados",</t>
+  </si>
+  <si>
+    <t>Local Currency Format:"Formato de Moeda Local",</t>
+  </si>
+  <si>
+    <t>Language Order:"Ordem de Idioma",</t>
+  </si>
+  <si>
+    <t>Section Access Table:"Seção Tabela de Acesso",</t>
+  </si>
+  <si>
+    <t>LanguageFooter:"Esta caixa pode ser removida para mais conteúdo analítico. As preferências do usuário podem ser especificadas usando grupos de segurança.",</t>
+  </si>
+  <si>
+    <t>ReloadSubtitle:"Depois de atualizar os arquivos de recurso/db com novos valores de String de caracteres, recarregue o aplicativo para atualizá-los.",</t>
+  </si>
+  <si>
+    <t>TableColTitle:"Abordagem baseada em coluna_COLON_ as colunas são 'alteradas' de acordo com a preferência de idioma.",</t>
+  </si>
+  <si>
+    <t>TableRowTitle:"Abordagem baseada em linha_COLON_ as linhas são 'filtradas/reduzidas' com base nas preferências do idioma.",</t>
+  </si>
+  <si>
+    <t>TableCRFooter:"NOTA_COLON_ Esta tabela não será alterada dependendo das seleções anteriores. É apenas para fins de demonstração."</t>
+  </si>
+  <si>
+    <t>Application Info:"Informações da Aplicação",</t>
+  </si>
+  <si>
+    <t>DEVELOPER:"DESENVOLVEDOR",</t>
+  </si>
+  <si>
+    <t>Data Explorer:"Explorador de Dados",</t>
+  </si>
+  <si>
+    <t>Language String Explorer:"Explorador de Dados String",</t>
+  </si>
+  <si>
+    <t>Language Section Access:"Acesso à Seção de Idiomas",</t>
+  </si>
+  <si>
+    <t>R$</t>
+  </si>
+  <si>
+    <t>Selecione seu idioma de preferência...</t>
+  </si>
+  <si>
+    <t>Dados Formatados</t>
+  </si>
+  <si>
+    <t>Formato de Moeda Local</t>
+  </si>
+  <si>
+    <t>Ordem de Idioma</t>
+  </si>
+  <si>
+    <t>Seção Tabela de Acesso</t>
+  </si>
+  <si>
+    <t>Esta caixa pode ser removida para mais conteúdo analítico. As preferências do usuário podem ser especificadas usando grupos de segurança.</t>
+  </si>
+  <si>
+    <t>Depois de atualizar os arquivos de recurso/db com novos valores de String de caracteres, recarregue o aplicativo para atualizá-los.</t>
+  </si>
+  <si>
+    <t>Abordagem baseada em coluna: as colunas são 'alteradas' de acordo com a preferência de idioma.</t>
+  </si>
+  <si>
+    <t>Abordagem baseada em linha: as linhas são 'filtradas/reduzidas' com base nas preferências do idioma.</t>
+  </si>
+  <si>
+    <t>NOTA: Esta tabela não será alterada dependendo das seleções anteriores. É apenas para fins de demonstração</t>
+  </si>
+  <si>
+    <t>Paste JSON key:values into cell B3, update A3 for the language code, and paste H, I, J (values only) into UI_Strings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m\/d\/yyyy"/>
-    <numFmt numFmtId="165" formatCode="##############"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="##############"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -778,6 +1337,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1133,11 +1700,11 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="48">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1488,10 +2055,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1521,7 +2088,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1544,7 +2111,7 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1567,7 +2134,7 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1576,7 +2143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1610,7 +2177,7 @@
         <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1633,7 +2200,7 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1679,7 +2246,7 @@
         <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -1688,7 +2255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1703,28 +2270,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -1733,7 +2300,7 @@
       <c r="B3" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1744,18 +2311,18 @@
       <c r="B4" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1766,7 +2333,7 @@
       <c r="B6" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1777,18 +2344,18 @@
       <c r="B7" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1799,7 +2366,7 @@
       <c r="B9" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1810,18 +2377,18 @@
       <c r="B10" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>1</v>
       </c>
       <c r="B11" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1832,7 +2399,7 @@
       <c r="B12" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1843,18 +2410,18 @@
       <c r="B13" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>1</v>
       </c>
       <c r="B14" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1865,7 +2432,7 @@
       <c r="B15" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1876,19 +2443,19 @@
       <c r="B16" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>1</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>182</v>
+      <c r="B17" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1896,10 +2463,10 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>183</v>
+        <v>163</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1907,10 +2474,10 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>184</v>
+        <v>163</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1919,10 +2486,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1932,21 +2499,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C2" t="s">
@@ -1954,10 +2521,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C3" t="s">
@@ -1965,10 +2532,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C4" t="s">
@@ -1976,10 +2543,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C5" t="s">
@@ -1987,10 +2554,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C6" t="s">
@@ -1998,10 +2565,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C7" t="s">
@@ -2009,10 +2576,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>1</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
@@ -2020,10 +2587,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
@@ -2031,10 +2598,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>3</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C10" t="s">
@@ -2042,10 +2609,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>1</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C11" t="s">
@@ -2053,10 +2620,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>2</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C12" t="s">
@@ -2064,10 +2631,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>3</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C13" t="s">
@@ -2075,10 +2642,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>1</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C14" t="s">
@@ -2086,10 +2653,10 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>2</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C15" t="s">
@@ -2097,10 +2664,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>3</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C16" t="s">
@@ -2108,36 +2675,36 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>1</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>167</v>
+      <c r="B17" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="C17" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>2</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>167</v>
+      <c r="B18" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="C18" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>3</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>167</v>
+      <c r="B19" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="C19" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2146,10 +2713,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2157,7 +2726,7 @@
     <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
@@ -2176,16 +2745,16 @@
       <c r="D1" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2202,16 +2771,17 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
-        <v>40339</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="E2" s="4">
+        <f ca="1">DATE(YEAR(NOW()),1,18)</f>
+        <v>42753</v>
+      </c>
+      <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>30</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>100</v>
       </c>
     </row>
@@ -2228,16 +2798,17 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
-        <v>40340</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="E3" s="4">
+        <f ca="1">DATE(YEAR(NOW()),2,23)</f>
+        <v>42789</v>
+      </c>
+      <c r="F3" s="1">
         <v>10</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>30</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>25</v>
       </c>
     </row>
@@ -2254,16 +2825,17 @@
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="E4" s="1">
-        <v>40339</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="E4" s="4">
+        <f ca="1">DATE(YEAR(NOW()),10,3)</f>
+        <v>43011</v>
+      </c>
+      <c r="F4" s="1">
         <v>4</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>50</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>500</v>
       </c>
     </row>
@@ -2280,16 +2852,17 @@
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" s="1">
-        <v>40340</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="E5" s="4">
+        <f ca="1">DATE(YEAR(NOW()),9,8)</f>
+        <v>42986</v>
+      </c>
+      <c r="F5" s="1">
         <v>13</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>50</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>250</v>
       </c>
     </row>
@@ -2306,16 +2879,17 @@
       <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6" s="1">
-        <v>40339</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="E6" s="4">
+        <f ca="1">DATE(YEAR(NOW()),3,3)</f>
+        <v>42797</v>
+      </c>
+      <c r="F6" s="1">
         <v>7</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>15</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>1000</v>
       </c>
     </row>
@@ -2332,16 +2906,17 @@
       <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7" s="1">
-        <v>40340</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="E7" s="4">
+        <f ca="1">DATE(YEAR(NOW()),4,19)</f>
+        <v>42844</v>
+      </c>
+      <c r="F7" s="1">
         <v>16</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>15</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>80</v>
       </c>
     </row>
@@ -2358,16 +2933,17 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="1">
-        <v>40339</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="E8" s="4">
+        <f ca="1">DATE(YEAR(NOW()),5,3)</f>
+        <v>42858</v>
+      </c>
+      <c r="F8" s="1">
         <v>3</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>30</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>250</v>
       </c>
     </row>
@@ -2384,16 +2960,17 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="1">
-        <v>40340</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="E9" s="4">
+        <f ca="1">DATE(YEAR(NOW()),6,22)</f>
+        <v>42908</v>
+      </c>
+      <c r="F9" s="1">
         <v>12</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>30</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>100</v>
       </c>
     </row>
@@ -2410,16 +2987,17 @@
       <c r="D10">
         <v>2</v>
       </c>
-      <c r="E10" s="1">
-        <v>40339</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="E10" s="4">
+        <f ca="1">DATE(YEAR(NOW()),7,21)</f>
+        <v>42937</v>
+      </c>
+      <c r="F10" s="1">
         <v>6</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>50</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>10</v>
       </c>
     </row>
@@ -2436,16 +3014,17 @@
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="E11" s="1">
-        <v>40340</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="E11" s="4">
+        <f ca="1">DATE(YEAR(NOW()),8,2)</f>
+        <v>42949</v>
+      </c>
+      <c r="F11" s="1">
         <v>15</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>50</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>60</v>
       </c>
     </row>
@@ -2462,16 +3041,17 @@
       <c r="D12">
         <v>3</v>
       </c>
-      <c r="E12" s="1">
-        <v>40339</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="E12" s="4">
+        <f ca="1">DATE(YEAR(NOW()),11,11)</f>
+        <v>43050</v>
+      </c>
+      <c r="F12" s="1">
         <v>9</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>15</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>75</v>
       </c>
     </row>
@@ -2488,16 +3068,17 @@
       <c r="D13">
         <v>3</v>
       </c>
-      <c r="E13" s="1">
-        <v>40340</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="E13" s="4">
+        <f ca="1">DATE(YEAR(NOW()),12,15)</f>
+        <v>43084</v>
+      </c>
+      <c r="F13" s="1">
         <v>18</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>15</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>275</v>
       </c>
     </row>
@@ -2514,16 +3095,17 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="1">
-        <v>40339</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="E14" s="4">
+        <f ca="1">DATE(YEAR(NOW()),10,31)</f>
+        <v>43039</v>
+      </c>
+      <c r="F14" s="1">
         <v>2</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>30</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>500</v>
       </c>
     </row>
@@ -2540,16 +3122,17 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" s="1">
-        <v>40340</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="E15" s="4">
+        <f ca="1">DATE(YEAR(NOW()),4,20)</f>
+        <v>42845</v>
+      </c>
+      <c r="F15" s="1">
         <v>11</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>30</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>45</v>
       </c>
     </row>
@@ -2566,16 +3149,17 @@
       <c r="D16">
         <v>2</v>
       </c>
-      <c r="E16" s="1">
-        <v>40339</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="E16" s="4">
+        <f ca="1">DATE(YEAR(NOW()),3,14)</f>
+        <v>42808</v>
+      </c>
+      <c r="F16" s="1">
         <v>5</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>50</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <v>50</v>
       </c>
     </row>
@@ -2592,16 +3176,17 @@
       <c r="D17">
         <v>2</v>
       </c>
-      <c r="E17" s="1">
-        <v>40340</v>
-      </c>
-      <c r="F17" s="2">
+      <c r="E17" s="4">
+        <f ca="1">DATE(YEAR(NOW()),12,25)</f>
+        <v>43094</v>
+      </c>
+      <c r="F17" s="1">
         <v>14</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <v>50</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <v>100</v>
       </c>
     </row>
@@ -2618,16 +3203,17 @@
       <c r="D18">
         <v>3</v>
       </c>
-      <c r="E18" s="1">
-        <v>40339</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="E18" s="4">
+        <f ca="1">DATE(YEAR(NOW()),1,1)</f>
+        <v>42736</v>
+      </c>
+      <c r="F18" s="1">
         <v>8</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>15</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>100</v>
       </c>
     </row>
@@ -2644,26 +3230,28 @@
       <c r="D19">
         <v>3</v>
       </c>
-      <c r="E19" s="1">
-        <v>40340</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="E19" s="4">
+        <f ca="1">DATE(YEAR(NOW()),7,4)</f>
+        <v>42920</v>
+      </c>
+      <c r="F19" s="1">
         <v>17</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="1">
         <v>15</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <v>300</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2723,10 +3311,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2735,14 +3323,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2764,153 +3352,153 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>262</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>286</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>188</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>194</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>190</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>196</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>189</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>259</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>283</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>264</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>288</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>198</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>197</v>
       </c>
       <c r="C15" t="s">
         <v>73</v>
@@ -2918,10 +3506,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>266</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>290</v>
       </c>
       <c r="C16" t="s">
         <v>73</v>
@@ -2929,10 +3517,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>263</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>287</v>
       </c>
       <c r="C17" t="s">
         <v>73</v>
@@ -2940,10 +3528,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>234</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>278</v>
       </c>
       <c r="C18" t="s">
         <v>73</v>
@@ -2951,10 +3539,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>240</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>241</v>
       </c>
       <c r="C19" t="s">
         <v>73</v>
@@ -2962,10 +3550,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>250</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>280</v>
       </c>
       <c r="C20" t="s">
         <v>73</v>
@@ -2973,10 +3561,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>251</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>281</v>
       </c>
       <c r="C21" t="s">
         <v>73</v>
@@ -2984,10 +3572,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="C22" t="s">
         <v>73</v>
@@ -2995,10 +3583,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>253</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>282</v>
       </c>
       <c r="C23" t="s">
         <v>73</v>
@@ -3006,10 +3594,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>255</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>245</v>
       </c>
       <c r="C24" t="s">
         <v>73</v>
@@ -3017,10 +3605,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>257</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>247</v>
       </c>
       <c r="C25" t="s">
         <v>73</v>
@@ -3028,10 +3616,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>242</v>
       </c>
       <c r="B26" t="s">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="C26" t="s">
         <v>73</v>
@@ -3039,10 +3627,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>246</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>249</v>
       </c>
       <c r="C27" t="s">
         <v>73</v>
@@ -3050,735 +3638,4214 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>244</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>245</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="B29" t="s">
-        <v>122</v>
+        <v>247</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>236</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>237</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>238</v>
       </c>
       <c r="B31" t="s">
-        <v>124</v>
+        <v>279</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>106</v>
+        <v>187</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>193</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>258</v>
+      </c>
+      <c r="B34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>63</v>
       </c>
-      <c r="B34" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" t="s">
-        <v>126</v>
-      </c>
-      <c r="C35" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>99</v>
-      </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>261</v>
       </c>
       <c r="B37" t="s">
-        <v>128</v>
+        <v>285</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>101</v>
+        <v>268</v>
       </c>
       <c r="B38" t="s">
-        <v>129</v>
+        <v>291</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>265</v>
+      </c>
+      <c r="B39" t="s">
+        <v>289</v>
+      </c>
+      <c r="C39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>102</v>
       </c>
-      <c r="B39" t="s">
-        <v>130</v>
-      </c>
-      <c r="C39" t="s">
-        <v>75</v>
-      </c>
-      <c r="E39" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>61</v>
-      </c>
       <c r="B40" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>270</v>
+      </c>
+      <c r="B42" t="s">
+        <v>292</v>
+      </c>
+      <c r="C42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>274</v>
+      </c>
+      <c r="B43" t="s">
+        <v>294</v>
+      </c>
+      <c r="C43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>272</v>
+      </c>
+      <c r="B44" t="s">
+        <v>293</v>
+      </c>
+      <c r="C44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>155</v>
+      </c>
+      <c r="B45" t="s">
+        <v>156</v>
+      </c>
+      <c r="C45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>103</v>
       </c>
-      <c r="B41" t="s">
-        <v>132</v>
-      </c>
-      <c r="C41" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" t="s">
-        <v>134</v>
-      </c>
-      <c r="C43" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="B46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>104</v>
       </c>
-      <c r="B44" t="s">
-        <v>104</v>
-      </c>
-      <c r="C44" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>105</v>
-      </c>
-      <c r="B45" t="s">
-        <v>135</v>
-      </c>
-      <c r="C45" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>106</v>
-      </c>
-      <c r="B46" t="s">
-        <v>136</v>
-      </c>
-      <c r="C46" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>109</v>
-      </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="C47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>79</v>
+        <v>262</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>262</v>
       </c>
       <c r="C48" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>188</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>188</v>
       </c>
       <c r="C49" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="B50" t="s">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="C50" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>190</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>190</v>
       </c>
       <c r="C51" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B52" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="C52" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>189</v>
       </c>
       <c r="B53" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="C53" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B54" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="C54" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="B55" t="s">
-        <v>142</v>
+        <v>260</v>
       </c>
       <c r="C55" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="B56" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="C56" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B57" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="C57" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>105</v>
+        <v>259</v>
       </c>
       <c r="B58" t="s">
-        <v>145</v>
+        <v>259</v>
       </c>
       <c r="C58" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>106</v>
+        <v>264</v>
       </c>
       <c r="B59" t="s">
-        <v>146</v>
+        <v>264</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>109</v>
+        <v>192</v>
       </c>
       <c r="B60" t="s">
-        <v>97</v>
+        <v>192</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="B61" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>266</v>
       </c>
       <c r="B62" t="s">
-        <v>148</v>
+        <v>267</v>
       </c>
       <c r="C62" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>263</v>
       </c>
       <c r="B63" t="s">
-        <v>149</v>
+        <v>263</v>
       </c>
       <c r="C63" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>234</v>
       </c>
       <c r="B64" t="s">
-        <v>150</v>
+        <v>235</v>
       </c>
       <c r="C64" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>240</v>
       </c>
       <c r="B65" t="s">
-        <v>151</v>
+        <v>241</v>
       </c>
       <c r="C65" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>250</v>
       </c>
       <c r="B66" t="s">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="C66" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>103</v>
+        <v>251</v>
       </c>
       <c r="B67" t="s">
-        <v>152</v>
+        <v>252</v>
       </c>
       <c r="C67" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c r="B68" t="s">
-        <v>153</v>
+        <v>247</v>
       </c>
       <c r="C68" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>63</v>
+        <v>253</v>
       </c>
       <c r="B69" t="s">
-        <v>154</v>
+        <v>254</v>
       </c>
       <c r="C69" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>255</v>
       </c>
       <c r="B70" t="s">
-        <v>155</v>
+        <v>245</v>
       </c>
       <c r="C70" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>257</v>
       </c>
       <c r="B71" t="s">
-        <v>156</v>
+        <v>249</v>
       </c>
       <c r="C71" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>242</v>
       </c>
       <c r="B72" t="s">
-        <v>157</v>
+        <v>243</v>
       </c>
       <c r="C72" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>109</v>
+        <v>246</v>
       </c>
       <c r="B73" t="s">
-        <v>98</v>
+        <v>247</v>
       </c>
       <c r="C73" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>244</v>
       </c>
       <c r="B74" t="s">
-        <v>169</v>
+        <v>245</v>
       </c>
       <c r="C74" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>99</v>
+        <v>248</v>
       </c>
       <c r="B75" t="s">
-        <v>170</v>
+        <v>249</v>
       </c>
       <c r="C75" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>100</v>
+        <v>236</v>
       </c>
       <c r="B76" t="s">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="C76" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>101</v>
+        <v>238</v>
       </c>
       <c r="B77" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C77" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="B78" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C78" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="B79" t="s">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="C79" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>103</v>
+        <v>258</v>
       </c>
       <c r="B80" t="s">
-        <v>190</v>
+        <v>61</v>
       </c>
       <c r="C80" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>77</v>
       </c>
       <c r="B81" t="s">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="C81" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>63</v>
       </c>
       <c r="B82" t="s">
-        <v>174</v>
+        <v>63</v>
       </c>
       <c r="C82" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>261</v>
       </c>
       <c r="B83" t="s">
-        <v>175</v>
+        <v>261</v>
       </c>
       <c r="C83" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>268</v>
+      </c>
+      <c r="B84" t="s">
+        <v>269</v>
+      </c>
+      <c r="C84" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>265</v>
+      </c>
+      <c r="B85" t="s">
+        <v>265</v>
+      </c>
+      <c r="C85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>102</v>
+      </c>
+      <c r="B86" t="s">
+        <v>102</v>
+      </c>
+      <c r="C86" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>105</v>
       </c>
-      <c r="B84" t="s">
-        <v>192</v>
-      </c>
-      <c r="C84" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>106</v>
-      </c>
-      <c r="B85" t="s">
-        <v>176</v>
-      </c>
-      <c r="C85" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>107</v>
-      </c>
-      <c r="B86" t="s">
-        <v>177</v>
-      </c>
-      <c r="C86" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>159</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>164</v>
+      <c r="B87" t="s">
+        <v>105</v>
       </c>
       <c r="C87" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>270</v>
+      </c>
+      <c r="B88" t="s">
+        <v>271</v>
+      </c>
+      <c r="C88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>274</v>
+      </c>
+      <c r="B89" t="s">
+        <v>275</v>
+      </c>
+      <c r="C89" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>272</v>
+      </c>
+      <c r="B90" t="s">
+        <v>273</v>
+      </c>
+      <c r="C90" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>155</v>
+      </c>
+      <c r="B91" t="s">
+        <v>160</v>
+      </c>
+      <c r="C91" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>103</v>
+      </c>
+      <c r="B92" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>104</v>
+      </c>
+      <c r="B93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C93" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>61</v>
+      </c>
+      <c r="B94" t="s">
+        <v>121</v>
+      </c>
+      <c r="C94" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>63</v>
+      </c>
+      <c r="B95" t="s">
+        <v>93</v>
+      </c>
+      <c r="C95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" t="s">
+        <v>89</v>
+      </c>
+      <c r="C96" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>79</v>
+      </c>
+      <c r="B97" t="s">
+        <v>118</v>
+      </c>
+      <c r="C97" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" t="s">
+        <v>119</v>
+      </c>
+      <c r="C98" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>77</v>
+      </c>
+      <c r="B99" t="s">
+        <v>120</v>
+      </c>
+      <c r="C99" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>155</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C100" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" t="s">
+        <v>91</v>
+      </c>
+      <c r="C101" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>262</v>
+      </c>
+      <c r="B102" t="s">
+        <v>303</v>
+      </c>
+      <c r="C102" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>188</v>
+      </c>
+      <c r="B103" t="s">
+        <v>200</v>
+      </c>
+      <c r="C103" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>79</v>
+      </c>
+      <c r="B104" t="s">
+        <v>122</v>
+      </c>
+      <c r="C104" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>190</v>
+      </c>
+      <c r="B105" t="s">
+        <v>202</v>
+      </c>
+      <c r="C105" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>97</v>
+      </c>
+      <c r="B106" t="s">
+        <v>123</v>
+      </c>
+      <c r="C106" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>189</v>
+      </c>
+      <c r="B107" t="s">
+        <v>201</v>
+      </c>
+      <c r="C107" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>98</v>
+      </c>
+      <c r="B108" t="s">
+        <v>124</v>
+      </c>
+      <c r="C108" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>260</v>
+      </c>
+      <c r="B109" t="s">
+        <v>301</v>
+      </c>
+      <c r="C109" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>99</v>
+      </c>
+      <c r="B110" t="s">
+        <v>125</v>
+      </c>
+      <c r="C110" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>100</v>
+      </c>
+      <c r="B111" t="s">
+        <v>126</v>
+      </c>
+      <c r="C111" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>259</v>
+      </c>
+      <c r="B112" t="s">
+        <v>300</v>
+      </c>
+      <c r="C112" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>264</v>
+      </c>
+      <c r="B113" t="s">
+        <v>305</v>
+      </c>
+      <c r="C113" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>192</v>
+      </c>
+      <c r="B114" t="s">
+        <v>204</v>
+      </c>
+      <c r="C114" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>191</v>
+      </c>
+      <c r="B115" t="s">
+        <v>203</v>
+      </c>
+      <c r="C115" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>266</v>
+      </c>
+      <c r="B116" t="s">
+        <v>307</v>
+      </c>
+      <c r="C116" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>263</v>
+      </c>
+      <c r="B117" t="s">
+        <v>304</v>
+      </c>
+      <c r="C117" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>234</v>
+      </c>
+      <c r="B118" t="s">
+        <v>278</v>
+      </c>
+      <c r="C118" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>240</v>
+      </c>
+      <c r="B119" t="s">
+        <v>241</v>
+      </c>
+      <c r="C119" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>250</v>
+      </c>
+      <c r="B120" t="s">
+        <v>243</v>
+      </c>
+      <c r="C120" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>251</v>
+      </c>
+      <c r="B121" t="s">
+        <v>252</v>
+      </c>
+      <c r="C121" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>256</v>
+      </c>
+      <c r="B122" t="s">
+        <v>247</v>
+      </c>
+      <c r="C122" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>253</v>
+      </c>
+      <c r="B123" t="s">
+        <v>282</v>
+      </c>
+      <c r="C123" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>255</v>
+      </c>
+      <c r="B124" t="s">
+        <v>245</v>
+      </c>
+      <c r="C124" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>257</v>
+      </c>
+      <c r="B125" t="s">
+        <v>249</v>
+      </c>
+      <c r="C125" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>242</v>
+      </c>
+      <c r="B126" t="s">
+        <v>243</v>
+      </c>
+      <c r="C126" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>246</v>
+      </c>
+      <c r="B127" t="s">
+        <v>247</v>
+      </c>
+      <c r="C127" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>244</v>
+      </c>
+      <c r="B128" t="s">
+        <v>245</v>
+      </c>
+      <c r="C128" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>248</v>
+      </c>
+      <c r="B129" t="s">
+        <v>249</v>
+      </c>
+      <c r="C129" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>236</v>
+      </c>
+      <c r="B130" t="s">
+        <v>237</v>
+      </c>
+      <c r="C130" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>238</v>
+      </c>
+      <c r="B131" t="s">
+        <v>279</v>
+      </c>
+      <c r="C131" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>187</v>
+      </c>
+      <c r="B132" t="s">
+        <v>199</v>
+      </c>
+      <c r="C132" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>101</v>
+      </c>
+      <c r="B133" t="s">
+        <v>128</v>
+      </c>
+      <c r="C133" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>258</v>
+      </c>
+      <c r="B134" t="s">
+        <v>127</v>
+      </c>
+      <c r="C134" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>77</v>
+      </c>
+      <c r="B135" t="s">
+        <v>129</v>
+      </c>
+      <c r="C135" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>63</v>
+      </c>
+      <c r="B136" t="s">
+        <v>130</v>
+      </c>
+      <c r="C136" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>261</v>
+      </c>
+      <c r="B137" t="s">
+        <v>302</v>
+      </c>
+      <c r="C137" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>268</v>
+      </c>
+      <c r="B138" t="s">
+        <v>308</v>
+      </c>
+      <c r="C138" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>265</v>
+      </c>
+      <c r="B139" t="s">
+        <v>306</v>
+      </c>
+      <c r="C139" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>102</v>
+      </c>
+      <c r="B140" t="s">
+        <v>102</v>
+      </c>
+      <c r="C140" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>105</v>
+      </c>
+      <c r="B141" t="s">
+        <v>299</v>
+      </c>
+      <c r="C141" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>270</v>
+      </c>
+      <c r="B142" t="s">
+        <v>309</v>
+      </c>
+      <c r="C142" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>274</v>
+      </c>
+      <c r="B143" t="s">
+        <v>311</v>
+      </c>
+      <c r="C143" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>272</v>
+      </c>
+      <c r="B144" t="s">
+        <v>310</v>
+      </c>
+      <c r="C144" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>155</v>
+      </c>
+      <c r="B145" t="s">
+        <v>157</v>
+      </c>
+      <c r="C145" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>103</v>
+      </c>
+      <c r="B146" t="s">
+        <v>131</v>
+      </c>
+      <c r="C146" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>104</v>
+      </c>
+      <c r="B147" t="s">
+        <v>132</v>
+      </c>
+      <c r="C147" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>262</v>
+      </c>
+      <c r="B148" t="s">
+        <v>262</v>
+      </c>
+      <c r="C148" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>188</v>
+      </c>
+      <c r="B149" t="s">
+        <v>206</v>
+      </c>
+      <c r="C149" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>79</v>
+      </c>
+      <c r="B150" t="s">
+        <v>133</v>
+      </c>
+      <c r="C150" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>190</v>
+      </c>
+      <c r="B151" t="s">
+        <v>208</v>
+      </c>
+      <c r="C151" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>97</v>
+      </c>
+      <c r="B152" t="s">
+        <v>97</v>
+      </c>
+      <c r="C152" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>189</v>
+      </c>
+      <c r="B153" t="s">
+        <v>207</v>
+      </c>
+      <c r="C153" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>98</v>
+      </c>
+      <c r="B154" t="s">
+        <v>134</v>
+      </c>
+      <c r="C154" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>260</v>
+      </c>
+      <c r="B155" t="s">
+        <v>313</v>
+      </c>
+      <c r="C155" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>99</v>
+      </c>
+      <c r="B156" t="s">
+        <v>109</v>
+      </c>
+      <c r="C156" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>100</v>
+      </c>
+      <c r="B157" t="s">
+        <v>135</v>
+      </c>
+      <c r="C157" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>259</v>
+      </c>
+      <c r="B158" t="s">
+        <v>312</v>
+      </c>
+      <c r="C158" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>264</v>
+      </c>
+      <c r="B159" t="s">
+        <v>316</v>
+      </c>
+      <c r="C159" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>192</v>
+      </c>
+      <c r="B160" t="s">
+        <v>210</v>
+      </c>
+      <c r="C160" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>191</v>
+      </c>
+      <c r="B161" t="s">
+        <v>209</v>
+      </c>
+      <c r="C161" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>266</v>
+      </c>
+      <c r="B162" t="s">
+        <v>318</v>
+      </c>
+      <c r="C162" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>263</v>
+      </c>
+      <c r="B163" t="s">
+        <v>315</v>
+      </c>
+      <c r="C163" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>234</v>
+      </c>
+      <c r="B164" t="s">
+        <v>278</v>
+      </c>
+      <c r="C164" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>240</v>
+      </c>
+      <c r="B165" t="s">
+        <v>241</v>
+      </c>
+      <c r="C165" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>250</v>
+      </c>
+      <c r="B166" t="s">
+        <v>280</v>
+      </c>
+      <c r="C166" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>251</v>
+      </c>
+      <c r="B167" t="s">
+        <v>281</v>
+      </c>
+      <c r="C167" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>256</v>
+      </c>
+      <c r="B168" t="s">
+        <v>249</v>
+      </c>
+      <c r="C168" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>253</v>
+      </c>
+      <c r="B169" t="s">
+        <v>282</v>
+      </c>
+      <c r="C169" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>255</v>
+      </c>
+      <c r="B170" t="s">
+        <v>245</v>
+      </c>
+      <c r="C170" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>257</v>
+      </c>
+      <c r="B171" t="s">
+        <v>247</v>
+      </c>
+      <c r="C171" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>242</v>
+      </c>
+      <c r="B172" t="s">
+        <v>280</v>
+      </c>
+      <c r="C172" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>246</v>
+      </c>
+      <c r="B173" t="s">
+        <v>249</v>
+      </c>
+      <c r="C173" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>244</v>
+      </c>
+      <c r="B174" t="s">
+        <v>245</v>
+      </c>
+      <c r="C174" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>248</v>
+      </c>
+      <c r="B175" t="s">
+        <v>247</v>
+      </c>
+      <c r="C175" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>236</v>
+      </c>
+      <c r="B176" t="s">
+        <v>237</v>
+      </c>
+      <c r="C176" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>238</v>
+      </c>
+      <c r="B177" t="s">
+        <v>279</v>
+      </c>
+      <c r="C177" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>187</v>
+      </c>
+      <c r="B178" t="s">
+        <v>205</v>
+      </c>
+      <c r="C178" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>101</v>
+      </c>
+      <c r="B179" t="s">
+        <v>137</v>
+      </c>
+      <c r="C179" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>258</v>
+      </c>
+      <c r="B180" t="s">
+        <v>136</v>
+      </c>
+      <c r="C180" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>77</v>
+      </c>
+      <c r="B181" t="s">
+        <v>138</v>
+      </c>
+      <c r="C181" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>63</v>
+      </c>
+      <c r="B182" t="s">
+        <v>139</v>
+      </c>
+      <c r="C182" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>261</v>
+      </c>
+      <c r="B183" t="s">
+        <v>314</v>
+      </c>
+      <c r="C183" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>268</v>
+      </c>
+      <c r="B184" t="s">
+        <v>319</v>
+      </c>
+      <c r="C184" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>265</v>
+      </c>
+      <c r="B185" t="s">
+        <v>317</v>
+      </c>
+      <c r="C185" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>102</v>
+      </c>
+      <c r="B186" t="s">
+        <v>140</v>
+      </c>
+      <c r="C186" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>105</v>
+      </c>
+      <c r="B187" t="s">
+        <v>95</v>
+      </c>
+      <c r="C187" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>270</v>
+      </c>
+      <c r="B188" t="s">
+        <v>320</v>
+      </c>
+      <c r="C188" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>274</v>
+      </c>
+      <c r="B189" t="s">
+        <v>322</v>
+      </c>
+      <c r="C189" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>272</v>
+      </c>
+      <c r="B190" t="s">
+        <v>321</v>
+      </c>
+      <c r="C190" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>155</v>
+      </c>
+      <c r="B191" t="s">
+        <v>158</v>
+      </c>
+      <c r="C191" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>103</v>
+      </c>
+      <c r="B192" t="s">
+        <v>141</v>
+      </c>
+      <c r="C192" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>104</v>
+      </c>
+      <c r="B193" t="s">
+        <v>142</v>
+      </c>
+      <c r="C193" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>262</v>
+      </c>
+      <c r="B194" t="s">
+        <v>330</v>
+      </c>
+      <c r="C194" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>188</v>
+      </c>
+      <c r="B195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C195" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>79</v>
+      </c>
+      <c r="B196" t="s">
+        <v>143</v>
+      </c>
+      <c r="C196" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>190</v>
+      </c>
+      <c r="B197" t="s">
+        <v>214</v>
+      </c>
+      <c r="C197" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>97</v>
+      </c>
+      <c r="B198" t="s">
+        <v>144</v>
+      </c>
+      <c r="C198" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>189</v>
+      </c>
+      <c r="B199" t="s">
+        <v>213</v>
+      </c>
+      <c r="C199" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>98</v>
+      </c>
+      <c r="B200" t="s">
+        <v>145</v>
+      </c>
+      <c r="C200" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>260</v>
+      </c>
+      <c r="B201" t="s">
+        <v>328</v>
+      </c>
+      <c r="C201" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>99</v>
+      </c>
+      <c r="B202" t="s">
+        <v>146</v>
+      </c>
+      <c r="C202" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>100</v>
+      </c>
+      <c r="B203" t="s">
+        <v>147</v>
+      </c>
+      <c r="C203" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>259</v>
+      </c>
+      <c r="B204" t="s">
+        <v>327</v>
+      </c>
+      <c r="C204" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>264</v>
+      </c>
+      <c r="B205" t="s">
+        <v>332</v>
+      </c>
+      <c r="C205" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>192</v>
+      </c>
+      <c r="B206" t="s">
+        <v>216</v>
+      </c>
+      <c r="C206" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>191</v>
+      </c>
+      <c r="B207" t="s">
+        <v>215</v>
+      </c>
+      <c r="C207" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>266</v>
+      </c>
+      <c r="B208" t="s">
+        <v>334</v>
+      </c>
+      <c r="C208" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>263</v>
+      </c>
+      <c r="B209" t="s">
+        <v>331</v>
+      </c>
+      <c r="C209" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>234</v>
+      </c>
+      <c r="B210" t="s">
+        <v>323</v>
+      </c>
+      <c r="C210" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>240</v>
+      </c>
+      <c r="B211" t="s">
+        <v>241</v>
+      </c>
+      <c r="C211" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>250</v>
+      </c>
+      <c r="B212" t="s">
+        <v>243</v>
+      </c>
+      <c r="C212" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>251</v>
+      </c>
+      <c r="B213" t="s">
+        <v>252</v>
+      </c>
+      <c r="C213" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>256</v>
+      </c>
+      <c r="B214" t="s">
+        <v>247</v>
+      </c>
+      <c r="C214" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>253</v>
+      </c>
+      <c r="B215" t="s">
+        <v>325</v>
+      </c>
+      <c r="C215" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>255</v>
+      </c>
+      <c r="B216" t="s">
+        <v>326</v>
+      </c>
+      <c r="C216" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>257</v>
+      </c>
+      <c r="B217" t="s">
+        <v>249</v>
+      </c>
+      <c r="C217" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>242</v>
+      </c>
+      <c r="B218" t="s">
+        <v>243</v>
+      </c>
+      <c r="C218" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>246</v>
+      </c>
+      <c r="B219" t="s">
+        <v>247</v>
+      </c>
+      <c r="C219" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>244</v>
+      </c>
+      <c r="B220" t="s">
+        <v>245</v>
+      </c>
+      <c r="C220" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>248</v>
+      </c>
+      <c r="B221" t="s">
+        <v>249</v>
+      </c>
+      <c r="C221" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>236</v>
+      </c>
+      <c r="B222" t="s">
+        <v>237</v>
+      </c>
+      <c r="C222" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>238</v>
+      </c>
+      <c r="B223" t="s">
+        <v>324</v>
+      </c>
+      <c r="C223" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>187</v>
+      </c>
+      <c r="B224" t="s">
+        <v>211</v>
+      </c>
+      <c r="C224" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>101</v>
+      </c>
+      <c r="B225" t="s">
+        <v>148</v>
+      </c>
+      <c r="C225" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>258</v>
+      </c>
+      <c r="B226" t="s">
+        <v>154</v>
+      </c>
+      <c r="C226" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>77</v>
+      </c>
+      <c r="B227" t="s">
+        <v>149</v>
+      </c>
+      <c r="C227" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>63</v>
+      </c>
+      <c r="B228" t="s">
+        <v>150</v>
+      </c>
+      <c r="C228" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>261</v>
+      </c>
+      <c r="B229" t="s">
+        <v>329</v>
+      </c>
+      <c r="C229" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>268</v>
+      </c>
+      <c r="B230" t="s">
+        <v>335</v>
+      </c>
+      <c r="C230" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>265</v>
+      </c>
+      <c r="B231" t="s">
+        <v>333</v>
+      </c>
+      <c r="C231" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>102</v>
+      </c>
+      <c r="B232" t="s">
+        <v>151</v>
+      </c>
+      <c r="C232" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>105</v>
+      </c>
+      <c r="B233" t="s">
+        <v>96</v>
+      </c>
+      <c r="C233" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>270</v>
+      </c>
+      <c r="B234" t="s">
+        <v>336</v>
+      </c>
+      <c r="C234" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>274</v>
+      </c>
+      <c r="B235" t="s">
+        <v>338</v>
+      </c>
+      <c r="C235" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>272</v>
+      </c>
+      <c r="B236" t="s">
+        <v>337</v>
+      </c>
+      <c r="C236" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>155</v>
+      </c>
+      <c r="B237" t="s">
         <v>159</v>
       </c>
-      <c r="B88" t="s">
-        <v>160</v>
-      </c>
-      <c r="C88" t="s">
-        <v>73</v>
-      </c>
-      <c r="D88" s="5"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>159</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C89" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>159</v>
-      </c>
-      <c r="B90" s="4" t="s">
+      <c r="C237" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>103</v>
+      </c>
+      <c r="B238" t="s">
+        <v>152</v>
+      </c>
+      <c r="C238" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>104</v>
+      </c>
+      <c r="B239" t="s">
+        <v>153</v>
+      </c>
+      <c r="C239" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>262</v>
+      </c>
+      <c r="B240" t="s">
+        <v>303</v>
+      </c>
+      <c r="C240" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>188</v>
+      </c>
+      <c r="B241" t="s">
+        <v>218</v>
+      </c>
+      <c r="C241" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>79</v>
+      </c>
+      <c r="B242" t="s">
+        <v>164</v>
+      </c>
+      <c r="C242" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>190</v>
+      </c>
+      <c r="B243" t="s">
+        <v>220</v>
+      </c>
+      <c r="C243" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>97</v>
+      </c>
+      <c r="B244" t="s">
+        <v>165</v>
+      </c>
+      <c r="C244" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>189</v>
+      </c>
+      <c r="B245" t="s">
+        <v>219</v>
+      </c>
+      <c r="C245" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>98</v>
+      </c>
+      <c r="B246" t="s">
+        <v>166</v>
+      </c>
+      <c r="C246" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>260</v>
+      </c>
+      <c r="B247" t="s">
+        <v>370</v>
+      </c>
+      <c r="C247" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>99</v>
+      </c>
+      <c r="B248" t="s">
+        <v>125</v>
+      </c>
+      <c r="C248" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>100</v>
+      </c>
+      <c r="B249" t="s">
+        <v>185</v>
+      </c>
+      <c r="C249" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>259</v>
+      </c>
+      <c r="B250" t="s">
+        <v>300</v>
+      </c>
+      <c r="C250" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>264</v>
+      </c>
+      <c r="B251" t="s">
+        <v>372</v>
+      </c>
+      <c r="C251" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>192</v>
+      </c>
+      <c r="B252" t="s">
+        <v>222</v>
+      </c>
+      <c r="C252" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>191</v>
+      </c>
+      <c r="B253" t="s">
+        <v>221</v>
+      </c>
+      <c r="C253" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>266</v>
+      </c>
+      <c r="B254" t="s">
+        <v>374</v>
+      </c>
+      <c r="C254" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>263</v>
+      </c>
+      <c r="B255" t="s">
+        <v>371</v>
+      </c>
+      <c r="C255" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>234</v>
+      </c>
+      <c r="B256" t="s">
+        <v>278</v>
+      </c>
+      <c r="C256" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>240</v>
+      </c>
+      <c r="B257" t="s">
+        <v>241</v>
+      </c>
+      <c r="C257" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>250</v>
+      </c>
+      <c r="B258" t="s">
+        <v>243</v>
+      </c>
+      <c r="C258" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>251</v>
+      </c>
+      <c r="B259" t="s">
+        <v>252</v>
+      </c>
+      <c r="C259" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>256</v>
+      </c>
+      <c r="B260" t="s">
+        <v>247</v>
+      </c>
+      <c r="C260" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>253</v>
+      </c>
+      <c r="B261" t="s">
+        <v>368</v>
+      </c>
+      <c r="C261" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>255</v>
+      </c>
+      <c r="B262" t="s">
+        <v>245</v>
+      </c>
+      <c r="C262" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>257</v>
+      </c>
+      <c r="B263" t="s">
+        <v>249</v>
+      </c>
+      <c r="C263" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>242</v>
+      </c>
+      <c r="B264" t="s">
+        <v>243</v>
+      </c>
+      <c r="C264" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>246</v>
+      </c>
+      <c r="B265" t="s">
+        <v>247</v>
+      </c>
+      <c r="C265" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>244</v>
+      </c>
+      <c r="B266" t="s">
+        <v>245</v>
+      </c>
+      <c r="C266" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>248</v>
+      </c>
+      <c r="B267" t="s">
+        <v>249</v>
+      </c>
+      <c r="C267" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>236</v>
+      </c>
+      <c r="B268" t="s">
+        <v>237</v>
+      </c>
+      <c r="C268" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>238</v>
+      </c>
+      <c r="B269" t="s">
+        <v>279</v>
+      </c>
+      <c r="C269" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>187</v>
+      </c>
+      <c r="B270" t="s">
+        <v>217</v>
+      </c>
+      <c r="C270" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>101</v>
+      </c>
+      <c r="B271" t="s">
+        <v>184</v>
+      </c>
+      <c r="C271" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>258</v>
+      </c>
+      <c r="B272" t="s">
+        <v>167</v>
+      </c>
+      <c r="C272" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>77</v>
+      </c>
+      <c r="B273" t="s">
+        <v>168</v>
+      </c>
+      <c r="C273" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>63</v>
+      </c>
+      <c r="B274" t="s">
+        <v>169</v>
+      </c>
+      <c r="C274" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>261</v>
+      </c>
+      <c r="B275" t="s">
+        <v>302</v>
+      </c>
+      <c r="C275" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>268</v>
+      </c>
+      <c r="B276" t="s">
+        <v>375</v>
+      </c>
+      <c r="C276" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>265</v>
+      </c>
+      <c r="B277" t="s">
+        <v>373</v>
+      </c>
+      <c r="C277" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>102</v>
+      </c>
+      <c r="B278" t="s">
+        <v>170</v>
+      </c>
+      <c r="C278" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>105</v>
+      </c>
+      <c r="B279" t="s">
+        <v>369</v>
+      </c>
+      <c r="C279" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>270</v>
+      </c>
+      <c r="B280" t="s">
+        <v>376</v>
+      </c>
+      <c r="C280" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>274</v>
+      </c>
+      <c r="B281" t="s">
+        <v>378</v>
+      </c>
+      <c r="C281" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>272</v>
+      </c>
+      <c r="B282" t="s">
+        <v>377</v>
+      </c>
+      <c r="C282" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>155</v>
+      </c>
+      <c r="B283" t="s">
         <v>162</v>
       </c>
-      <c r="C90" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>159</v>
-      </c>
-      <c r="B91" s="4" t="s">
+      <c r="C283" t="s">
         <v>163</v>
       </c>
-      <c r="C91" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>159</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C92" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>159</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C93" t="s">
-        <v>167</v>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>103</v>
+      </c>
+      <c r="B284" t="s">
+        <v>186</v>
+      </c>
+      <c r="C284" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>104</v>
+      </c>
+      <c r="B285" t="s">
+        <v>171</v>
+      </c>
+      <c r="C285" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:C285">
+    <sortCondition ref="C2:C285"/>
+    <sortCondition ref="A2:A285"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E71778F-E499-1149-B2D3-5C6FC44C5E99}">
+  <dimension ref="A1:L48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="47.5" customWidth="1"/>
+    <col min="4" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="26.6640625" customWidth="1"/>
+    <col min="11" max="11" width="25" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+      <c r="B1" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" t="s">
+        <v>276</v>
+      </c>
+      <c r="G3">
+        <f>FIND(":",C3)</f>
+        <v>13</v>
+      </c>
+      <c r="H3" t="str">
+        <f>MID(C3,1,G3-1)</f>
+        <v>mlFormatDate</v>
+      </c>
+      <c r="I3" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K3,"_COMMA_",","),"_COLON_",":")</f>
+        <v>DD/MM/YYYY</v>
+      </c>
+      <c r="J3" t="str">
+        <f>$A$3</f>
+        <v>pt</v>
+      </c>
+      <c r="K3" t="str">
+        <f>LEFT(L3,LEN(L3)-2)</f>
+        <v>DD/MM/YYYY</v>
+      </c>
+      <c r="L3" t="str">
+        <f>MID(C3,G3+2,LEN(C3))</f>
+        <v>DD/MM/YYYY",</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G48" si="0">FIND(":",C4)</f>
+        <v>13</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" ref="H4:H48" si="1">MID(C4,1,G4-1)</f>
+        <v>mlFormatTime</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:I48" si="2">SUBSTITUTE(SUBSTITUTE(K4,"_COMMA_",","),"_COLON_",":")</f>
+        <v>hh:mm:ss</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" ref="J4:J48" si="3">$A$3</f>
+        <v>pt</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" ref="K4:K48" si="4">LEFT(L4,LEN(L4)-2)</f>
+        <v>hh:mm:ss</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" ref="L4:L48" si="5">MID(C4,G4+2,LEN(C4))</f>
+        <v>hh:mm:ss",</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>277</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="1"/>
+        <v>mlFormatTimestamp</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="2"/>
+        <v>DD/MM/YYYY hh:mm:ss</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="4"/>
+        <v>DD/MM/YYYY hh:mm:ss</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="5"/>
+        <v>DD/MM/YYYY hh:mm:ss",</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>224</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v>mlFormatInterval</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="2"/>
+        <v>D hh:mm</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="4"/>
+        <v>D hh:mm</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="5"/>
+        <v>D hh:mm",</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="1"/>
+        <v>mlFormatNum</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v>#,##0.dec</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="4"/>
+        <v>#_COMMA_##0.dec</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="5"/>
+        <v>#_COMMA_##0.dec",</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v>mlFormatNumDefaultDecimals</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="5"/>
+        <v>2",</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>227</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="1"/>
+        <v>mlFormatNumDecimal</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v>.</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="4"/>
+        <v>.</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="5"/>
+        <v>.",</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>228</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="1"/>
+        <v>mlFormatNumThousand</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v>,</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="4"/>
+        <v>_COMMA_</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="5"/>
+        <v>_COMMA_",</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>229</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="1"/>
+        <v>mlFormatMoney</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v>#,##0.dec</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="4"/>
+        <v>#_COMMA_##0.dec</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="5"/>
+        <v>#_COMMA_##0.dec",</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>230</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="1"/>
+        <v>mlFormatMoneyCurrency</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v>cur#,##0.dec</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="4"/>
+        <v>cur#_COMMA_##0.dec</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="5"/>
+        <v>cur#_COMMA_##0.dec",</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>339</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="1"/>
+        <v>mlFormatMoneyDefaultCurrency</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="2"/>
+        <v>R$</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="4"/>
+        <v>R$</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="5"/>
+        <v>R$",</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>231</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="1"/>
+        <v>mlFormatMoneyDefaultDecimals</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="5"/>
+        <v>2",</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>232</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="1"/>
+        <v>mlFormatMoneyDecimal</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="2"/>
+        <v>.</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="4"/>
+        <v>.</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="5"/>
+        <v>.",</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>233</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="1"/>
+        <v>mlFormatMoneyThousand</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="2"/>
+        <v>,</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="4"/>
+        <v>_COMMA_</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="5"/>
+        <v>_COMMA_",</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>340</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="1"/>
+        <v>Company</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="2"/>
+        <v>Empresa</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="4"/>
+        <v>Empresa</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="5"/>
+        <v>Empresa",</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>341</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="1"/>
+        <v>Date</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="2"/>
+        <v>Data</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="4"/>
+        <v>Data</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="5"/>
+        <v>Data",</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>342</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="1"/>
+        <v>Extended Price</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="2"/>
+        <v>Preço Estendido</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="4"/>
+        <v>Preço Estendido</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="5"/>
+        <v>Preço Estendido",</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>295</v>
+      </c>
+      <c r="G20">
+        <f>FIND(":",C20)</f>
+        <v>9</v>
+      </c>
+      <c r="H20" t="str">
+        <f>MID(C20,1,G20-1)</f>
+        <v>Industry</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="2"/>
+        <v>Industria</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="4"/>
+        <v>Industria</v>
+      </c>
+      <c r="L20" t="str">
+        <f>MID(C20,G20+2,LEN(C20))</f>
+        <v>Industria",</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>343</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="1"/>
+        <v>Language</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="2"/>
+        <v>Idioma</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="4"/>
+        <v>Idioma</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="5"/>
+        <v>Idioma",</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>344</v>
+      </c>
+      <c r="G22">
+        <f>FIND(":",C22)</f>
+        <v>13</v>
+      </c>
+      <c r="H22" t="str">
+        <f>MID(C22,1,G22-1)</f>
+        <v>Order Number</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="2"/>
+        <v>Nº Pedido</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="4"/>
+        <v>Nº Pedido</v>
+      </c>
+      <c r="L22" t="str">
+        <f>MID(C22,G22+2,LEN(C22))</f>
+        <v>Nº Pedido",</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="1"/>
+        <v>Order Details</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="2"/>
+        <v>Detalhe do Pedido</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="4"/>
+        <v>Detalhe do Pedido</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="5"/>
+        <v>Detalhe do Pedido",</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>346</v>
+      </c>
+      <c r="G24">
+        <f>FIND(":",C24)</f>
+        <v>8</v>
+      </c>
+      <c r="H24" t="str">
+        <f>MID(C24,1,G24-1)</f>
+        <v>Product</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="2"/>
+        <v>Produto</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="4"/>
+        <v>Produto</v>
+      </c>
+      <c r="L24" t="str">
+        <f>MID(C24,G24+2,LEN(C24))</f>
+        <v>Produto",</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>347</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="1"/>
+        <v>Quantity</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantidade</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="4"/>
+        <v>Quantidade</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="5"/>
+        <v>Quantidade",</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>348</v>
+      </c>
+      <c r="G26">
+        <f>FIND(":",C26)</f>
+        <v>7</v>
+      </c>
+      <c r="H26" t="str">
+        <f>MID(C26,1,G26-1)</f>
+        <v>Sector</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="2"/>
+        <v>Setor</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="4"/>
+        <v>Setor</v>
+      </c>
+      <c r="L26" t="str">
+        <f>MID(C26,G26+2,LEN(C26))</f>
+        <v>Setor",</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>349</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="1"/>
+        <v>Total Orders</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="2"/>
+        <v>Total de Pedidos</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="4"/>
+        <v>Total de Pedidos</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="5"/>
+        <v>Total de Pedidos",</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>350</v>
+      </c>
+      <c r="G28">
+        <f>FIND(":",C28)</f>
+        <v>11</v>
+      </c>
+      <c r="H28" t="str">
+        <f>MID(C28,1,G28-1)</f>
+        <v>Unit Price</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="2"/>
+        <v>Preço Unitário</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="4"/>
+        <v>Preço Unitário</v>
+      </c>
+      <c r="L28" t="str">
+        <f>MID(C28,G28+2,LEN(C28))</f>
+        <v>Preço Unitário",</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>351</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="1"/>
+        <v>Select your preferred language...</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="2"/>
+        <v>Selecione seu idioma de preferência...</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="4"/>
+        <v>Selecione seu idioma de preferência...</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="5"/>
+        <v>Selecione seu idioma de preferência...",</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>352</v>
+      </c>
+      <c r="G30">
+        <f>FIND(":",C30)</f>
+        <v>9</v>
+      </c>
+      <c r="H30" t="str">
+        <f>MID(C30,1,G30-1)</f>
+        <v>themeRGB</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="2"/>
+        <v>RGB(48,125,48)</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="4"/>
+        <v>RGB(48,125,48)</v>
+      </c>
+      <c r="L30" t="str">
+        <f>MID(C30,G30+2,LEN(C30))</f>
+        <v>RGB(48,125,48)",</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>353</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="1"/>
+        <v>Order Analysis</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="2"/>
+        <v>Análise de Pedidos</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="4"/>
+        <v>Análise de Pedidos</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="5"/>
+        <v>Análise de Pedidos",</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>363</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="1"/>
+        <v>Application Info</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="2"/>
+        <v>Informações da Aplicação</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="4"/>
+        <v>Informações da Aplicação</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="5"/>
+        <v>Informações da Aplicação",</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>364</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="1"/>
+        <v>DEVELOPER</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="2"/>
+        <v>DESENVOLVEDOR</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="4"/>
+        <v>DESENVOLVEDOR</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="5"/>
+        <v>DESENVOLVEDOR",</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>365</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="1"/>
+        <v>Data Explorer</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="2"/>
+        <v>Explorador de Dados</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="4"/>
+        <v>Explorador de Dados</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="5"/>
+        <v>Explorador de Dados",</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>366</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="1"/>
+        <v>Language String Explorer</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="2"/>
+        <v>Explorador de Dados String</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="4"/>
+        <v>Explorador de Dados String</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="5"/>
+        <v>Explorador de Dados String",</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>367</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="1"/>
+        <v>Language Section Access</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="2"/>
+        <v>Acesso à Seção de Idiomas</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="4"/>
+        <v>Acesso à Seção de Idiomas</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="5"/>
+        <v>Acesso à Seção de Idiomas",</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>296</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="1"/>
+        <v>Language Format Explorer</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="2"/>
+        <v>Explorador de Formato de Idioma</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="4"/>
+        <v>Explorador de Formato de Idioma</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="5"/>
+        <v>Explorador de Formato de Idioma",</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>354</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="1"/>
+        <v>Formatted Data</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="2"/>
+        <v>Dados Formatados</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="4"/>
+        <v>Dados Formatados</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="5"/>
+        <v>Dados Formatados",</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>297</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="1"/>
+        <v>Raw Data</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="2"/>
+        <v>Datos Brutos</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="4"/>
+        <v>Datos Brutos</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="5"/>
+        <v>Datos Brutos",</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>298</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="1"/>
+        <v>Age</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="2"/>
+        <v>Era</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="4"/>
+        <v>Era</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="5"/>
+        <v>Era",</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>355</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="1"/>
+        <v>Local Currency Format</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="2"/>
+        <v>Formato de Moeda Local</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="4"/>
+        <v>Formato de Moeda Local</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="5"/>
+        <v>Formato de Moeda Local",</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>356</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="1"/>
+        <v>Language Order</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="2"/>
+        <v>Ordem de Idioma</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="4"/>
+        <v>Ordem de Idioma</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="5"/>
+        <v>Ordem de Idioma",</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>357</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="1"/>
+        <v>Section Access Table</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="2"/>
+        <v>Seção Tabela de Acesso</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="4"/>
+        <v>Seção Tabela de Acesso</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="5"/>
+        <v>Seção Tabela de Acesso",</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>358</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="1"/>
+        <v>LanguageFooter</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="2"/>
+        <v>Esta caixa pode ser removida para mais conteúdo analítico. As preferências do usuário podem ser especificadas usando grupos de segurança.</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="4"/>
+        <v>Esta caixa pode ser removida para mais conteúdo analítico. As preferências do usuário podem ser especificadas usando grupos de segurança.</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="5"/>
+        <v>Esta caixa pode ser removida para mais conteúdo analítico. As preferências do usuário podem ser especificadas usando grupos de segurança.",</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>359</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="1"/>
+        <v>ReloadSubtitle</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="2"/>
+        <v>Depois de atualizar os arquivos de recurso/db com novos valores de String de caracteres, recarregue o aplicativo para atualizá-los.</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="4"/>
+        <v>Depois de atualizar os arquivos de recurso/db com novos valores de String de caracteres, recarregue o aplicativo para atualizá-los.</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="5"/>
+        <v>Depois de atualizar os arquivos de recurso/db com novos valores de String de caracteres, recarregue o aplicativo para atualizá-los.",</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>360</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="1"/>
+        <v>TableColTitle</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="2"/>
+        <v>Abordagem baseada em coluna: as colunas são 'alteradas' de acordo com a preferência de idioma.</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="4"/>
+        <v>Abordagem baseada em coluna_COLON_ as colunas são 'alteradas' de acordo com a preferência de idioma.</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="5"/>
+        <v>Abordagem baseada em coluna_COLON_ as colunas são 'alteradas' de acordo com a preferência de idioma.",</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>361</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="1"/>
+        <v>TableRowTitle</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="2"/>
+        <v>Abordagem baseada em linha: as linhas são 'filtradas/reduzidas' com base nas preferências do idioma.</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="4"/>
+        <v>Abordagem baseada em linha_COLON_ as linhas são 'filtradas/reduzidas' com base nas preferências do idioma.</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="5"/>
+        <v>Abordagem baseada em linha_COLON_ as linhas são 'filtradas/reduzidas' com base nas preferências do idioma.",</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>362</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="1"/>
+        <v>TableCRFooter</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="2"/>
+        <v>NOTA: Esta tabela não será alterada dependendo das seleções anteriores. É apenas para fins de demonstração</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="3"/>
+        <v>pt</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="4"/>
+        <v>NOTA_COLON_ Esta tabela não será alterada dependendo das seleções anteriores. É apenas para fins de demonstração</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="5"/>
+        <v>NOTA_COLON_ Esta tabela não será alterada dependendo das seleções anteriores. É apenas para fins de demonstração."</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>